--- a/similarities/split_global/harmonic_similarity_timestamps_46.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['E', 'A', 'B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+          <t>('0:00:53.138888', '0:01:08.150589')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+          <t>('0:00:47.187000', '0:00:57.707000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=53.138888</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=120.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['A#:7', 'D#', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['A:7', 'D:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:00:35.700000', '0:00:38.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
+          <t>('0:00:40.440000', '0:00:46.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=35.7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=40.44</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:04.830000', '0:00:07.280000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:54.820000', '0:01:01.800000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:7', 'E']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:28.479798', '0:00:31.393902')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:06.480000', '0:00:13.640000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=28.479798']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=6.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B', 'E', 'A', 'E', 'B']]</t>
+          <t>['D:min/G', 'F:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['D:min', 'F', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.512756', '0:00:22.098788')]</t>
+          <t>('0:00:28.080000', '0:00:35.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:49.306000', '0:02:07.327000')]</t>
+          <t>('0:00:33.059000', '0:00:40.513000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=2.512756']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=28.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=109.306']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=33.059</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:00:39.180000', '0:00:53.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:27.460000', '0:00:36.020000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:01:39.600000', '0:01:51.620000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G/5', 'G:min/5', 'D']]</t>
+          <t>['D:7', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:23.505328', '0:01:33.397029')]</t>
+          <t>('0:00:57.401473', '0:01:02.625963')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:04.140000', '0:00:13.420000')]</t>
+          <t>('0:00:52.020000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=83.505328']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=4.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F', 'Bb:7', 'F']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G:7', 'D']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:09.880000', '0:00:15.540000')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:19.240204', '0:02:24.766553')]</t>
+          <t>('0:00:07.360000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=139.240204']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>jaah_2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj6', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Eb:maj6', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:40.640000', '0:00:44.010000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:27.030000', '0:00:32.610000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=40.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-2#t=27.03</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:09.886462', '0:00:16.504148')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+          <t>('0:00:31.910000', '0:00:40.720000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=9.886462']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-109#t=94.925']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+          <t>('0:00:32.400000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:01:10.380000', '0:01:30.980000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=70.38</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14.600000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:06.531178')]</t>
+          <t>('0:00:02.860000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
